--- a/JAMES_GAINEY.xlsx
+++ b/JAMES_GAINEY.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -98,94 +101,103 @@
     <t xml:space="preserve">Weekly</t>
   </si>
   <si>
-    <t xml:space="preserve">BRITT HOG SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">919-658-9485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1316 - 1318, 212 RALPH BRITT FARM LN, MOUNT OLIVE, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHP-Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAINEY, JAMES T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-385-4876</t>
+    <t xml:space="preserve">ENVIRO TECH 1 SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1732, 1049-A SAND RIDGE RD, PINK HILL, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP-East Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAINEY, JAMES T</t>
   </si>
   <si>
     <t xml:space="preserve">SPG240</t>
   </si>
   <si>
+    <t xml:space="preserve">0.22083333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVIRO TECH 2 SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1732, 1049-B SAND RIDGE RD, PINK HILL, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22291666666666665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVIRO TECH 3 SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1732 1049-C SAND RIDGE RD, PINK HILL, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22569444444444445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN MEADOWS SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-346-9131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1105 1852 HAWS RUN RD, MAPLE HILL, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39652777777777781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEATH SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20555555555555557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HILL SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22430555555555556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWL POND FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1165 DAVIS MILL ROAD, DEEP RUN, NC 28525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21111111111111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAYLOR SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23055555555555554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIUMPH ASSOC LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">443 DILL SANDERSON LN, MT OLIVE, NC</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.19722222222222222</t>
   </si>
   <si>
-    <t xml:space="preserve">ENVIRO TECH 1 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1732, 1049-A SAND RIDGE RD, PINK HILL, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26250000000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENVIRO TECH 2 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1732, 1049-B SAND RIDGE RD, PINK HILL, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENVIRO TECH 3 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1732 1049-C SAND RIDGE RD, PINK HILL, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEN MEADOWS SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-346-9131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1105 1852 HAWS RUN RD, MAPLE HILL, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21111111111111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAIRR 1 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1188 VEACHES MILL RD, WARSAW, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22708333333333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMITH, JOHN SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-526-1029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1704, 1430-A KITTY KNOECKER RD, PINK HILL, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27291666666666664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIUMPH ASSOC LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">443 DILL SANDERSON LN, MT OLIVE, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28472222222222221</t>
+    <t xml:space="preserve">WHALEY SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23472222222222219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIMMERMAN SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24305555555555555</t>
   </si>
 </sst>
 </file>
@@ -522,34 +534,35 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="17.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="18.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="56.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="16.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="44.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="15.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -631,26 +644,27 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>7094</v>
+        <v>7093</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>3997</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
+        <v>2155</v>
+      </c>
+      <c r="F2"/>
       <c r="G2" t="s">
         <v>30</v>
       </c>
@@ -660,59 +674,58 @@
       <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2"/>
+      <c r="K2" t="s">
         <v>33</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" t="n">
-        <v>162</v>
-      </c>
-      <c r="O2"/>
+      <c r="N2"/>
+      <c r="O2" t="n">
+        <v>71</v>
+      </c>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2" t="n">
-        <v>168</v>
-      </c>
-      <c r="S2"/>
+      <c r="R2"/>
+      <c r="S2" t="n">
+        <v>216</v>
+      </c>
       <c r="T2"/>
       <c r="U2"/>
-      <c r="V2" t="n">
-        <v>113</v>
-      </c>
+      <c r="V2"/>
       <c r="W2" t="n">
-        <v>443</v>
+        <v>57</v>
       </c>
       <c r="X2" t="n">
-        <v>1.94298245614035</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2"/>
+        <v>344</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.03550295857988</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>7092</v>
+        <v>7093</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -720,59 +733,58 @@
       <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3"/>
+      <c r="K3" t="s">
         <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" t="n">
-        <v>65</v>
-      </c>
-      <c r="O3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
+        <v>71</v>
+      </c>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3" t="n">
-        <v>119</v>
-      </c>
-      <c r="S3"/>
+      <c r="R3"/>
+      <c r="S3" t="n">
+        <v>216</v>
+      </c>
       <c r="T3"/>
       <c r="U3"/>
-      <c r="V3" t="n">
-        <v>160</v>
-      </c>
+      <c r="V3"/>
       <c r="W3" t="n">
+        <v>57</v>
+      </c>
+      <c r="X3" t="n">
         <v>344</v>
       </c>
-      <c r="X3" t="n">
-        <v>2.03550295857988</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3"/>
+      <c r="Y3" t="n">
+        <v>1.93258426966292</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>7092</v>
+        <v>7093</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -780,59 +792,60 @@
       <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4"/>
+      <c r="K4" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" t="n">
-        <v>96</v>
-      </c>
-      <c r="O4"/>
+      <c r="N4"/>
+      <c r="O4" t="n">
+        <v>44</v>
+      </c>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4" t="n">
-        <v>96</v>
-      </c>
-      <c r="S4"/>
+      <c r="R4"/>
+      <c r="S4" t="n">
+        <v>70</v>
+      </c>
       <c r="T4"/>
       <c r="U4"/>
-      <c r="V4" t="n">
-        <v>152</v>
-      </c>
+      <c r="V4"/>
       <c r="W4" t="n">
-        <v>344</v>
+        <v>220</v>
       </c>
       <c r="X4" t="n">
-        <v>2.19108280254777</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4"/>
+        <v>334</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.10062893081761</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>7092</v>
+        <v>7094</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
       </c>
       <c r="E5" t="n">
-        <v>2161</v>
-      </c>
-      <c r="F5"/>
+        <v>6463</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -840,183 +853,172 @@
       <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5"/>
+      <c r="K5" t="s">
         <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="n">
-        <v>95</v>
-      </c>
-      <c r="O5"/>
+      <c r="N5"/>
+      <c r="O5" t="n">
+        <v>50</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5" t="n">
-        <v>88</v>
-      </c>
-      <c r="S5"/>
+      <c r="R5"/>
+      <c r="S5" t="n">
+        <v>50</v>
+      </c>
       <c r="T5"/>
       <c r="U5"/>
-      <c r="V5" t="n">
-        <v>144</v>
-      </c>
+      <c r="V5"/>
       <c r="W5" t="n">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="X5" t="n">
-        <v>1.8268156424581</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5"/>
+        <v>360</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.20858895705521</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>7092</v>
+        <v>7081</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>6463</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
+        <v>5055</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
       <c r="H6" t="s">
         <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6"/>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="n">
-        <v>140</v>
-      </c>
+      <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6" t="n">
-        <v>50</v>
-      </c>
+      <c r="O6" t="n">
+        <v>25</v>
+      </c>
+      <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6" t="n">
-        <v>180</v>
-      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6" t="n">
-        <v>370</v>
+        <v>135</v>
       </c>
       <c r="X6" t="n">
-        <v>2.17647058823529</v>
-      </c>
-      <c r="Y6" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="Z6" t="s">
         <v>47</v>
       </c>
-      <c r="Z6"/>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>7092</v>
+        <v>7082</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
       </c>
       <c r="E7" t="n">
-        <v>2218</v>
+        <v>5056</v>
       </c>
       <c r="F7"/>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
+      <c r="G7"/>
       <c r="H7" t="s">
         <v>31</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7"/>
+      <c r="K7" t="s">
         <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7" t="n">
-        <v>77</v>
-      </c>
-      <c r="O7"/>
+      <c r="N7"/>
+      <c r="O7" t="n">
+        <v>112</v>
+      </c>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" t="n">
-        <v>122</v>
-      </c>
-      <c r="S7"/>
+      <c r="R7"/>
+      <c r="S7" t="n">
+        <v>20</v>
+      </c>
       <c r="T7"/>
       <c r="U7"/>
-      <c r="V7" t="n">
-        <v>145</v>
-      </c>
+      <c r="V7"/>
       <c r="W7" t="n">
-        <v>344</v>
+        <v>120</v>
       </c>
       <c r="X7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z7"/>
+        <v>252</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B8" t="n">
-        <v>7081</v>
+        <v>7068</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5050</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
         <v>51</v>
-      </c>
-      <c r="E8" t="n">
-        <v>28901</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
       </c>
       <c r="H8" t="s">
         <v>31</v>
@@ -1024,99 +1026,268 @@
       <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8"/>
+      <c r="K8" t="s">
         <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>34</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="N8" t="n">
-        <v>30</v>
-      </c>
-      <c r="O8"/>
+      <c r="N8"/>
+      <c r="O8" t="n">
+        <v>60</v>
+      </c>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8" t="n">
-        <v>30</v>
-      </c>
-      <c r="S8"/>
+      <c r="R8"/>
+      <c r="S8" t="n">
+        <v>8</v>
+      </c>
       <c r="T8"/>
       <c r="U8"/>
-      <c r="V8" t="n">
-        <v>80</v>
-      </c>
+      <c r="V8"/>
       <c r="W8" t="n">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="X8" t="n">
-        <v>2.1875</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z8"/>
+        <v>132</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.97014925373134</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>7094</v>
+        <v>7069</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
-        <v>38321</v>
+        <v>5051</v>
       </c>
       <c r="F9"/>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
+      <c r="G9"/>
       <c r="H9" t="s">
         <v>31</v>
       </c>
       <c r="I9" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9"/>
+      <c r="K9" t="s">
         <v>33</v>
       </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="n">
-        <v>120</v>
-      </c>
+      <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9" t="n">
-        <v>31</v>
-      </c>
+      <c r="O9" t="n">
+        <v>110</v>
+      </c>
+      <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9" t="n">
-        <v>76</v>
-      </c>
+      <c r="S9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9" t="n">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="X9" t="n">
-        <v>2.06363636363636</v>
-      </c>
-      <c r="Y9" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.47524752475248</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7092</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38321</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" t="n">
+        <v>140</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10" t="n">
+        <v>56</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10" t="n">
+        <v>35</v>
+      </c>
+      <c r="X10" t="n">
+        <v>231</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.08108108108108</v>
+      </c>
+      <c r="Z10" t="s">
         <v>57</v>
       </c>
-      <c r="Z9"/>
+      <c r="AA10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7069</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5052</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11" t="n">
+        <v>103</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11" t="n">
+        <v>40</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11" t="n">
+        <v>120</v>
+      </c>
+      <c r="X11" t="n">
+        <v>263</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2.19166666666667</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7069</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5053</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12" t="n">
+        <v>102</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12" t="n">
+        <v>30</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12" t="n">
+        <v>120</v>
+      </c>
+      <c r="X12" t="n">
+        <v>252</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
